--- a/Bases de datos/PeruData.xlsx
+++ b/Bases de datos/PeruData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpedupe-my.sharepoint.com/personal/mauricio_alvarado_pucp_edu_pe/Documents/Practicando/Python/Proyectos/time_series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Proyectos\time_series\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{845DF66B-AE8D-46FF-B475-EF6AE7373035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879D669B-627B-4593-BDE9-AAB278F17F5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775638D5-4F8B-470B-91B3-A55C95CD3974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{18C7D368-6125-4AE4-B853-E916CA27DA4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18C7D368-6125-4AE4-B853-E916CA27DA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Trimestral" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -826,12 +823,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -847,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,6 +865,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,11 +1188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58908C82-A165-43C7-966C-35ED52DC7614}">
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,25 +1276,25 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1294,10 +1303,10 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -12256,11 +12265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6B1F7-80C4-47DC-AED6-C3099376D663}">
   <dimension ref="A1:S392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K132" sqref="K132"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Bases de datos/PeruData.xlsx
+++ b/Bases de datos/PeruData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Proyectos\time_series\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775638D5-4F8B-470B-91B3-A55C95CD3974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDE4ED-6819-432D-9C2F-4F185F19DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18C7D368-6125-4AE4-B853-E916CA27DA4F}"/>
   </bookViews>
@@ -1189,10 +1189,10 @@
   <dimension ref="A1:X178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
